--- a/ig/sd-add-new-MS/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-new-MS/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T13:39:25+00:00</t>
+    <t>2024-02-19T13:46:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -11615,7 +11615,7 @@
         <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>80</v>
